--- a/1yrQRsorted.xlsx
+++ b/1yrQRsorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulrik/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BDFDB1-3D65-4540-908E-F7DAB577EE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C45EE6D-871B-1C43-AE2C-551F2D87E0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>yyyymm</t>
   </si>
@@ -1067,6 +1067,63 @@
   </si>
   <si>
     <t>201811</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.9</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1490,7 @@
   <dimension ref="A1:V349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1445,62 +1502,62 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="K1" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="M1" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N1" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="O1" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="P1" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="S1" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="T1" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="U1" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="V1" s="1">
-        <v>0.95</v>
+      <c r="D1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
